--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp11</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp11</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H2">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5936486666666667</v>
+        <v>0.172479</v>
       </c>
       <c r="N2">
-        <v>1.780946</v>
+        <v>0.5174369999999999</v>
       </c>
       <c r="O2">
-        <v>0.2196065926393678</v>
+        <v>0.1112535186193337</v>
       </c>
       <c r="P2">
-        <v>0.2196065926393678</v>
+        <v>0.1112535186193337</v>
       </c>
       <c r="Q2">
-        <v>4.270853754040445</v>
+        <v>0.003221965212999999</v>
       </c>
       <c r="R2">
-        <v>38.437683786364</v>
+        <v>0.02899768691699999</v>
       </c>
       <c r="S2">
-        <v>0.2196065926393678</v>
+        <v>0.1112535186193337</v>
       </c>
       <c r="T2">
-        <v>0.2196065926393678</v>
+        <v>0.1112535186193337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H3">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>2.893454</v>
       </c>
       <c r="O3">
-        <v>0.3567887930901606</v>
+        <v>0.6221181292856633</v>
       </c>
       <c r="P3">
-        <v>0.3567887930901606</v>
+        <v>0.6221181292856633</v>
       </c>
       <c r="Q3">
-        <v>6.938738669248446</v>
+        <v>0.01801689506822222</v>
       </c>
       <c r="R3">
-        <v>62.44864802323601</v>
+        <v>0.162152055614</v>
       </c>
       <c r="S3">
-        <v>0.3567887930901606</v>
+        <v>0.6221181292856633</v>
       </c>
       <c r="T3">
-        <v>0.3567887930901606</v>
+        <v>0.6221181292856633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.194244666666667</v>
+        <v>0.01868033333333333</v>
       </c>
       <c r="H4">
-        <v>21.582734</v>
+        <v>0.056041</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.145103666666667</v>
+        <v>0.4133603333333333</v>
       </c>
       <c r="N4">
-        <v>3.435311</v>
+        <v>1.240081</v>
       </c>
       <c r="O4">
-        <v>0.4236046142704715</v>
+        <v>0.2666283520950029</v>
       </c>
       <c r="P4">
-        <v>0.4236046142704715</v>
+        <v>0.2666283520950029</v>
       </c>
       <c r="Q4">
-        <v>8.238155946697113</v>
+        <v>0.007721708813444444</v>
       </c>
       <c r="R4">
-        <v>74.14340352027402</v>
+        <v>0.069495379321</v>
       </c>
       <c r="S4">
-        <v>0.4236046142704715</v>
+        <v>0.2666283520950029</v>
       </c>
       <c r="T4">
-        <v>0.4236046142704715</v>
+        <v>0.2666283520950029</v>
       </c>
     </row>
   </sheetData>
